--- a/examples/publishers-template.xlsx
+++ b/examples/publishers-template.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
-    <t>{{ | | library }}</t>
+    <t>{{ | | library.name }}</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1503,12 +1503,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.2422" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5234" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.22656" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1406" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.17188" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1719" style="1" customWidth="1"/>
     <col min="5" max="8" width="16.3516" style="1" customWidth="1"/>
-    <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
